--- a/order_operations/orders.xlsx
+++ b/order_operations/orders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>gui.yun@e-ports.com</t>
   </si>
@@ -41,22 +41,40 @@
     <t>consigneeName</t>
   </si>
   <si>
+    <t>5a3c970775c03807006362c0</t>
+  </si>
+  <si>
+    <t>EP1120171222052423980</t>
+  </si>
+  <si>
+    <t>5a1bce0899c71b0900f9665a</t>
+  </si>
+  <si>
+    <t>orgOwnerTest.20171117001.a</t>
+  </si>
+  <si>
+    <t>5a1bd30999c71b0900f9665b</t>
+  </si>
+  <si>
+    <t>orgAgentTest.20171127002.b</t>
+  </si>
+  <si>
+    <t>5a3c954d75c03807006362a2</t>
+  </si>
+  <si>
+    <t>EP0620171222051701196</t>
+  </si>
+  <si>
+    <t>5a39cc876556100800cbd47d</t>
+  </si>
+  <si>
+    <t>EP0820171220023551609</t>
+  </si>
+  <si>
     <t>5a2fa92e5e21d70800bc4dc8</t>
   </si>
   <si>
     <t>EP0120171212100222910</t>
-  </si>
-  <si>
-    <t>5a1bce0899c71b0900f9665a</t>
-  </si>
-  <si>
-    <t>orgOwnerTest.20171117001.a</t>
-  </si>
-  <si>
-    <t>5a1bd30999c71b0900f9665b</t>
-  </si>
-  <si>
-    <t>orgAgentTest.20171127002.b</t>
   </si>
   <si>
     <t>5a2f9f0d6f8cd3070026d069</t>
@@ -482,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -655,18 +673,18 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -675,18 +693,18 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -703,22 +721,22 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -735,18 +753,18 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -763,10 +781,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -783,21 +801,81 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
         <v>13</v>
       </c>
     </row>

--- a/order_operations/orders.xlsx
+++ b/order_operations/orders.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gui.yun@e-ports.com" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="qingdao@e-ports.com" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
-  <si>
-    <t>gui.yun@e-ports.com</t>
-  </si>
-  <si>
-    <t>consigner</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+  <si>
+    <t>qingdao@e-ports.com</t>
+  </si>
+  <si>
+    <t>consignee</t>
   </si>
   <si>
     <t>orderId</t>
@@ -41,130 +41,166 @@
     <t>consigneeName</t>
   </si>
   <si>
-    <t>5a3c970775c03807006362c0</t>
-  </si>
-  <si>
-    <t>EP1120171222052423980</t>
-  </si>
-  <si>
-    <t>5a1bce0899c71b0900f9665a</t>
-  </si>
-  <si>
-    <t>orgOwnerTest.20171117001.a</t>
-  </si>
-  <si>
-    <t>5a1bd30999c71b0900f9665b</t>
-  </si>
-  <si>
-    <t>orgAgentTest.20171127002.b</t>
-  </si>
-  <si>
-    <t>5a3c954d75c03807006362a2</t>
-  </si>
-  <si>
-    <t>EP0620171222051701196</t>
-  </si>
-  <si>
-    <t>5a39cc876556100800cbd47d</t>
-  </si>
-  <si>
-    <t>EP0820171220023551609</t>
-  </si>
-  <si>
-    <t>5a2fa92e5e21d70800bc4dc8</t>
-  </si>
-  <si>
-    <t>EP0120171212100222910</t>
-  </si>
-  <si>
-    <t>5a2f9f0d6f8cd3070026d069</t>
-  </si>
-  <si>
-    <t>EP0820171212091909389</t>
-  </si>
-  <si>
-    <t>5a2a72a00fc6c807002a3c19</t>
-  </si>
-  <si>
-    <t>EP0820171208110816904</t>
-  </si>
-  <si>
-    <t>5a20c9fe6a60d808003d5b42</t>
-  </si>
-  <si>
-    <t>EP0920171201031822630</t>
-  </si>
-  <si>
-    <t>5a1fd12bd11e6908001bd83c</t>
-  </si>
-  <si>
-    <t>EP0120171130093643218</t>
-  </si>
-  <si>
-    <t>5a1fcf57d11e6908001bd812</t>
-  </si>
-  <si>
-    <t>EP1120171130092855430</t>
-  </si>
-  <si>
-    <t>5a1fc25ec9abcd0800fc7460</t>
-  </si>
-  <si>
-    <t>EP0820171130083334223</t>
-  </si>
-  <si>
-    <t>5a1fbcf58f993b09004d7fba</t>
-  </si>
-  <si>
-    <t>备用测试代理，a'b'c</t>
-  </si>
-  <si>
-    <t>5a1fbf43c9abcd0800fc742e</t>
-  </si>
-  <si>
-    <t>EP0620171130082019879</t>
-  </si>
-  <si>
-    <t>5a1fbe98c9abcd0800fc741d</t>
-  </si>
-  <si>
-    <t>EP0420171130081728354</t>
-  </si>
-  <si>
-    <t>5a1fb7218f993b09004d7f95</t>
-  </si>
-  <si>
-    <t>EP0420171130074537187</t>
-  </si>
-  <si>
-    <t>5a1fb2e38f993b09004d7f43</t>
-  </si>
-  <si>
-    <t>EP0120171130072731712</t>
-  </si>
-  <si>
-    <t>5a1e7b1874cbb20700f17c67</t>
-  </si>
-  <si>
-    <t>orgAgentTest.20171129004.d</t>
-  </si>
-  <si>
-    <t>5a1fa51a74cbb20700f17d0a</t>
-  </si>
-  <si>
-    <t>EP0820171130062842879</t>
-  </si>
-  <si>
-    <t>5a1cd05199c71b0900f967bc</t>
-  </si>
-  <si>
-    <t>EP0620171128025617425</t>
-  </si>
-  <si>
-    <t>5a1ccbc499c71b0900f96741</t>
-  </si>
-  <si>
-    <t>EP0020171128023652290</t>
+    <t>5a31f395b11a490900ad1eae</t>
+  </si>
+  <si>
+    <t>EP0020171214034421840</t>
+  </si>
+  <si>
+    <t>59e6c619cd108309004a38e1</t>
+  </si>
+  <si>
+    <t>huahuagongsi</t>
+  </si>
+  <si>
+    <t>59bb7e8516642e0085891029</t>
+  </si>
+  <si>
+    <t>E-Ports Agent</t>
+  </si>
+  <si>
+    <t>5a2a2e7e4b7d3409005542a2</t>
+  </si>
+  <si>
+    <t>EP0020171208061734001</t>
+  </si>
+  <si>
+    <t>59c9f2da7eb7fb0900d43af3</t>
+  </si>
+  <si>
+    <t>E-PORTS Principal</t>
+  </si>
+  <si>
+    <t>5a1bb9f16801b50900a93baa</t>
+  </si>
+  <si>
+    <t>EP0020171127070833779</t>
+  </si>
+  <si>
+    <t>5a17d56c6801b50900a93b20</t>
+  </si>
+  <si>
+    <t>EP0020171124081644106</t>
+  </si>
+  <si>
+    <t>5a1b8a5a6801b50900a93b81</t>
+  </si>
+  <si>
+    <t>EP0020171127034530320</t>
+  </si>
+  <si>
+    <t>5a277b624b7d34090055421f</t>
+  </si>
+  <si>
+    <t>EP0020171206050850929</t>
+  </si>
+  <si>
+    <t>5a14de63e75c3e0900d92349</t>
+  </si>
+  <si>
+    <t>EP0720171122021811656</t>
+  </si>
+  <si>
+    <t>5a124c6658722e0700c7a0da</t>
+  </si>
+  <si>
+    <t>EP0020171120033046054</t>
+  </si>
+  <si>
+    <t>5a38d918b11a490900ad1f08</t>
+  </si>
+  <si>
+    <t>EP0020171219091712651</t>
+  </si>
+  <si>
+    <t>5a0c022358722e0700c7a08e</t>
+  </si>
+  <si>
+    <t>EP0020171115090019260</t>
+  </si>
+  <si>
+    <t>5a04015c08f84d07007cfb89</t>
+  </si>
+  <si>
+    <t>EP0720171109071852000</t>
+  </si>
+  <si>
+    <t>5a3cacecc939a3090045a0b4</t>
+  </si>
+  <si>
+    <t>EP0020171222065748705</t>
+  </si>
+  <si>
+    <t>5a3c9cbec939a3090045a097</t>
+  </si>
+  <si>
+    <t>EP0020171222054846251</t>
+  </si>
+  <si>
+    <t>5a3c651da3f17109000671b5</t>
+  </si>
+  <si>
+    <t>EP0020171222015125329</t>
+  </si>
+  <si>
+    <t>5a3c7a89a3f17109000671dc</t>
+  </si>
+  <si>
+    <t>EP0020171222032249577</t>
+  </si>
+  <si>
+    <t>5a3a19b5b11a490900ad1f42</t>
+  </si>
+  <si>
+    <t>EP0020171220080509811</t>
+  </si>
+  <si>
+    <t>5a3b7aefa3f171090006718e</t>
+  </si>
+  <si>
+    <t>EP0020171221091215792</t>
+  </si>
+  <si>
+    <t>5a3b4b5aa3f171090006710a</t>
+  </si>
+  <si>
+    <t>EP0020171221054914643</t>
+  </si>
+  <si>
+    <t>5a03fb9508f84d07007cfb6d</t>
+  </si>
+  <si>
+    <t>EP0720171109065413076</t>
+  </si>
+  <si>
+    <t>5a017d0808f84d07007cfac3</t>
+  </si>
+  <si>
+    <t>EP0020171107092944478</t>
+  </si>
+  <si>
+    <t>5a0540ed306c6407008a1a72</t>
+  </si>
+  <si>
+    <t>EP0020171110060221115</t>
+  </si>
+  <si>
+    <t>5a3b4949a3f17109000670fe</t>
+  </si>
+  <si>
+    <t>EP0020171221054025723</t>
+  </si>
+  <si>
+    <t>5a03cb1b08f84d07007cfb52</t>
+  </si>
+  <si>
+    <t>EP0020171109032722986</t>
+  </si>
+  <si>
+    <t>5a026ae008f84d07007cfaf8</t>
+  </si>
+  <si>
+    <t>EP0420171108022432083</t>
   </si>
 </sst>
 </file>
@@ -500,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -567,10 +603,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -581,16 +617,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -601,16 +637,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -621,16 +657,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -641,16 +677,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -661,16 +697,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -681,16 +717,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -701,16 +737,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -721,22 +757,22 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -747,16 +783,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -767,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -787,10 +823,10 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -807,30 +843,30 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -841,16 +877,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -861,21 +897,161 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
         <v>13</v>
       </c>
     </row>

--- a/order_operations/orders.xlsx
+++ b/order_operations/orders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>qingdao@e-ports.com</t>
   </si>
@@ -41,16 +41,16 @@
     <t>consigneeName</t>
   </si>
   <si>
-    <t>5a31f395b11a490900ad1eae</t>
-  </si>
-  <si>
-    <t>EP0020171214034421840</t>
-  </si>
-  <si>
-    <t>59e6c619cd108309004a38e1</t>
-  </si>
-  <si>
-    <t>huahuagongsi</t>
+    <t>5a3cacecc939a3090045a0b4</t>
+  </si>
+  <si>
+    <t>EP0020171222065748705</t>
+  </si>
+  <si>
+    <t>59c9f2da7eb7fb0900d43af3</t>
+  </si>
+  <si>
+    <t>E-PORTS Principal</t>
   </si>
   <si>
     <t>59bb7e8516642e0085891029</t>
@@ -59,16 +59,64 @@
     <t>E-Ports Agent</t>
   </si>
   <si>
+    <t>5a3c9cbec939a3090045a097</t>
+  </si>
+  <si>
+    <t>EP0020171222054846251</t>
+  </si>
+  <si>
+    <t>5a3c7a89a3f17109000671dc</t>
+  </si>
+  <si>
+    <t>EP0020171222032249577</t>
+  </si>
+  <si>
+    <t>5a3c651da3f17109000671b5</t>
+  </si>
+  <si>
+    <t>EP0020171222015125329</t>
+  </si>
+  <si>
+    <t>5a3b7aefa3f171090006718e</t>
+  </si>
+  <si>
+    <t>EP0020171221091215792</t>
+  </si>
+  <si>
+    <t>5a3b4b5aa3f171090006710a</t>
+  </si>
+  <si>
+    <t>EP0020171221054914643</t>
+  </si>
+  <si>
+    <t>5a3b4949a3f17109000670fe</t>
+  </si>
+  <si>
+    <t>EP0020171221054025723</t>
+  </si>
+  <si>
+    <t>5a3a19b5b11a490900ad1f42</t>
+  </si>
+  <si>
+    <t>EP0020171220080509811</t>
+  </si>
+  <si>
+    <t>5a38d918b11a490900ad1f08</t>
+  </si>
+  <si>
+    <t>EP0020171219091712651</t>
+  </si>
+  <si>
     <t>5a2a2e7e4b7d3409005542a2</t>
   </si>
   <si>
     <t>EP0020171208061734001</t>
   </si>
   <si>
-    <t>59c9f2da7eb7fb0900d43af3</t>
-  </si>
-  <si>
-    <t>E-PORTS Principal</t>
+    <t>5a277b624b7d34090055421f</t>
+  </si>
+  <si>
+    <t>EP0020171206050850929</t>
   </si>
   <si>
     <t>5a1bb9f16801b50900a93baa</t>
@@ -77,24 +125,18 @@
     <t>EP0020171127070833779</t>
   </si>
   <si>
+    <t>5a1b8a5a6801b50900a93b81</t>
+  </si>
+  <si>
+    <t>EP0020171127034530320</t>
+  </si>
+  <si>
     <t>5a17d56c6801b50900a93b20</t>
   </si>
   <si>
     <t>EP0020171124081644106</t>
   </si>
   <si>
-    <t>5a1b8a5a6801b50900a93b81</t>
-  </si>
-  <si>
-    <t>EP0020171127034530320</t>
-  </si>
-  <si>
-    <t>5a277b624b7d34090055421f</t>
-  </si>
-  <si>
-    <t>EP0020171206050850929</t>
-  </si>
-  <si>
     <t>5a14de63e75c3e0900d92349</t>
   </si>
   <si>
@@ -107,100 +149,46 @@
     <t>EP0020171120033046054</t>
   </si>
   <si>
-    <t>5a38d918b11a490900ad1f08</t>
-  </si>
-  <si>
-    <t>EP0020171219091712651</t>
-  </si>
-  <si>
     <t>5a0c022358722e0700c7a08e</t>
   </si>
   <si>
     <t>EP0020171115090019260</t>
   </si>
   <si>
+    <t>5a0540ed306c6407008a1a72</t>
+  </si>
+  <si>
+    <t>EP0020171110060221115</t>
+  </si>
+  <si>
     <t>5a04015c08f84d07007cfb89</t>
   </si>
   <si>
     <t>EP0720171109071852000</t>
   </si>
   <si>
-    <t>5a3cacecc939a3090045a0b4</t>
-  </si>
-  <si>
-    <t>EP0020171222065748705</t>
-  </si>
-  <si>
-    <t>5a3c9cbec939a3090045a097</t>
-  </si>
-  <si>
-    <t>EP0020171222054846251</t>
-  </si>
-  <si>
-    <t>5a3c651da3f17109000671b5</t>
-  </si>
-  <si>
-    <t>EP0020171222015125329</t>
-  </si>
-  <si>
-    <t>5a3c7a89a3f17109000671dc</t>
-  </si>
-  <si>
-    <t>EP0020171222032249577</t>
-  </si>
-  <si>
-    <t>5a3a19b5b11a490900ad1f42</t>
-  </si>
-  <si>
-    <t>EP0020171220080509811</t>
-  </si>
-  <si>
-    <t>5a3b7aefa3f171090006718e</t>
-  </si>
-  <si>
-    <t>EP0020171221091215792</t>
-  </si>
-  <si>
-    <t>5a3b4b5aa3f171090006710a</t>
-  </si>
-  <si>
-    <t>EP0020171221054914643</t>
-  </si>
-  <si>
     <t>5a03fb9508f84d07007cfb6d</t>
   </si>
   <si>
     <t>EP0720171109065413076</t>
   </si>
   <si>
+    <t>5a03cb1b08f84d07007cfb52</t>
+  </si>
+  <si>
+    <t>EP0020171109032722986</t>
+  </si>
+  <si>
+    <t>5a026ae008f84d07007cfaf8</t>
+  </si>
+  <si>
+    <t>EP0420171108022432083</t>
+  </si>
+  <si>
     <t>5a017d0808f84d07007cfac3</t>
   </si>
   <si>
     <t>EP0020171107092944478</t>
-  </si>
-  <si>
-    <t>5a0540ed306c6407008a1a72</t>
-  </si>
-  <si>
-    <t>EP0020171110060221115</t>
-  </si>
-  <si>
-    <t>5a3b4949a3f17109000670fe</t>
-  </si>
-  <si>
-    <t>EP0020171221054025723</t>
-  </si>
-  <si>
-    <t>5a03cb1b08f84d07007cfb52</t>
-  </si>
-  <si>
-    <t>EP0020171109032722986</t>
-  </si>
-  <si>
-    <t>5a026ae008f84d07007cfaf8</t>
-  </si>
-  <si>
-    <t>EP0420171108022432083</t>
   </si>
 </sst>
 </file>
@@ -536,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -603,10 +591,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -617,16 +605,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -637,16 +625,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -657,16 +645,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -677,16 +665,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -697,16 +685,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -717,16 +705,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -737,16 +725,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -757,16 +745,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -777,16 +765,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -797,16 +785,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -817,16 +805,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -837,16 +825,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -857,16 +845,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -877,16 +865,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -897,16 +885,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -917,16 +905,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -937,16 +925,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -957,16 +945,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -977,16 +965,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -997,16 +985,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1017,41 +1005,21 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
         <v>13</v>
       </c>
     </row>
